--- a/my-data/Tabel.xlsx
+++ b/my-data/Tabel.xlsx
@@ -201,7 +201,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+      <selection pane="topLeft" activeCell="K18" activeCellId="0" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
